--- a/Excel/Excel Day 2/02 Get more out of PivotTables Part 2.xlsx
+++ b/Excel/Excel Day 2/02 Get more out of PivotTables Part 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C544FF7-FB8E-0843-BE09-64E7A2E7453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F1D1DC-2782-7841-B7FA-73CB00E18424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="872" firstSheet="10" activeTab="24" xr2:uid="{B1D72241-571C-4FD3-AEA4-3799E169BD4D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" tabRatio="872" xr2:uid="{B1D72241-571C-4FD3-AEA4-3799E169BD4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="2" r:id="rId1"/>
@@ -43,21 +43,21 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId26"/>
-    <pivotCache cacheId="1" r:id="rId27"/>
-    <pivotCache cacheId="2" r:id="rId28"/>
-    <pivotCache cacheId="3" r:id="rId29"/>
-    <pivotCache cacheId="4" r:id="rId30"/>
-    <pivotCache cacheId="5" r:id="rId31"/>
-    <pivotCache cacheId="6" r:id="rId32"/>
-    <pivotCache cacheId="7" r:id="rId33"/>
-    <pivotCache cacheId="8" r:id="rId34"/>
-    <pivotCache cacheId="9" r:id="rId35"/>
-    <pivotCache cacheId="10" r:id="rId36"/>
-    <pivotCache cacheId="11" r:id="rId37"/>
-    <pivotCache cacheId="12" r:id="rId38"/>
-    <pivotCache cacheId="13" r:id="rId39"/>
-    <pivotCache cacheId="14" r:id="rId40"/>
+    <pivotCache cacheId="12" r:id="rId26"/>
+    <pivotCache cacheId="13" r:id="rId27"/>
+    <pivotCache cacheId="14" r:id="rId28"/>
+    <pivotCache cacheId="15" r:id="rId29"/>
+    <pivotCache cacheId="16" r:id="rId30"/>
+    <pivotCache cacheId="17" r:id="rId31"/>
+    <pivotCache cacheId="18" r:id="rId32"/>
+    <pivotCache cacheId="19" r:id="rId33"/>
+    <pivotCache cacheId="20" r:id="rId34"/>
+    <pivotCache cacheId="21" r:id="rId35"/>
+    <pivotCache cacheId="22" r:id="rId36"/>
+    <pivotCache cacheId="23" r:id="rId37"/>
+    <pivotCache cacheId="24" r:id="rId38"/>
+    <pivotCache cacheId="25" r:id="rId39"/>
+    <pivotCache cacheId="26" r:id="rId40"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3046,320 +3046,6 @@
     </xdr:sp>
     <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:absoluteAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1312545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219070</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2341377</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Good to know Step" descr="GOOD TO KNOW&#10;Did you take the first tutorial? If not, go to File &gt; New and find Make your first PivotTable.&#10;&#10;">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD2E63DA-5007-4B63-BFAF-7BFC3D27B1E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8220700" y="3150870"/>
-          <a:ext cx="1428120" cy="1028832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="en-US"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" kern="0">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>GOOD TO KNOW</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="1">
-            <a:solidFill>
-              <a:srgbClr val="ED7D31">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:latin typeface="+mj-lt"/>
-            <a:ea typeface="Segoe UI" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Did you take the first tutorial? If not, go to </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>File</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> &gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="0" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>New</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> and find </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" i="1" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PivotTable tutorial</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" i="1">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1369695</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>377972</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1814342</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Graphic 2" descr="Owl">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2D586A-FDEB-438B-8125-27CE96CE6877}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7877175" y="3208020"/>
-          <a:ext cx="444647" cy="444647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -40645,7 +40331,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D068E91C-2B84-4636-AF1D-7247CB1DE7A8}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D068E91C-2B84-4636-AF1D-7247CB1DE7A8}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="16" outline="0" subtotalTop="0" showAll="0"/>
@@ -40704,7 +40390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB8D1BDC-5245-43D4-B3EA-25288ED68FF7}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB8D1BDC-5245-43D4-B3EA-25288ED68FF7}" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -41176,7 +40862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83635B5B-28D4-41E9-B070-CD1C7CB92571}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{83635B5B-28D4-41E9-B070-CD1C7CB92571}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F7:G31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -41312,7 +40998,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F93EA00-189E-453F-9D54-1916686BD63B}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F93EA00-189E-453F-9D54-1916686BD63B}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F7:G31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0"/>
@@ -41448,7 +41134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEAFD9E5-A878-4C42-BE7F-EE38E563AC4D}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEAFD9E5-A878-4C42-BE7F-EE38E563AC4D}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:M19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -41551,7 +41237,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{815F6EF3-46F6-460A-8C36-079BE688B56A}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{815F6EF3-46F6-460A-8C36-079BE688B56A}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D8:E29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -41677,7 +41363,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211C6F2C-5175-4F10-A468-CB67E112D9BA}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{211C6F2C-5175-4F10-A468-CB67E112D9BA}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -41732,7 +41418,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D30E849-DE88-4E05-A97E-2142CC5B858A}" name="Sum of Units sold" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D30E849-DE88-4E05-A97E-2142CC5B858A}" name="Sum of Units sold" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -41767,7 +41453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70FFF7DA-EF63-4659-869D-D50B65AE8983}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70FFF7DA-EF63-4659-869D-D50B65AE8983}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -41802,7 +41488,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F9049EC-B320-4881-BC61-4B33C15C860D}" name="Sum of Units Sold" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F9049EC-B320-4881-BC61-4B33C15C860D}" name="Sum of Units Sold" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:R16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -41901,7 +41587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E14F5CF-7369-4905-BDD0-B23008DB52EE}" name="Sum of Units Sold" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E14F5CF-7369-4905-BDD0-B23008DB52EE}" name="Sum of Units Sold" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B13:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -41931,7 +41617,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EABE6C2C-F1F4-4FA2-95FD-222D75B6E9B7}" name="tbl_2.1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EABE6C2C-F1F4-4FA2-95FD-222D75B6E9B7}" name="tbl_2.1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F11:G15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="16" outline="0" subtotalTop="0" showAll="0"/>
@@ -41990,7 +41676,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C25B045-6569-4869-A87D-AF7D044C9B32}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C25B045-6569-4869-A87D-AF7D044C9B32}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F11:G15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="16" outline="0" subtotalTop="0" showAll="0"/>
@@ -42049,7 +41735,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5317741-F635-4E94-A49B-3E32704C868A}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5317741-F635-4E94-A49B-3E32704C868A}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="C10:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="16" outline="0" subtotalTop="0" showAll="0"/>
@@ -42138,7 +41824,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51F6B35B-DCA6-43BA-992B-7A1773EFBAF0}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{51F6B35B-DCA6-43BA-992B-7A1773EFBAF0}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="C10:I15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
@@ -42218,7 +41904,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00AEE823-641D-41F9-A1D5-9FCC642C96FE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00AEE823-641D-41F9-A1D5-9FCC642C96FE}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="B13:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="16" outline="0" subtotalTop="0" showAll="0"/>
@@ -42277,7 +41963,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D7AA0EA-EAC2-4D31-AC44-CD51DE039EAA}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D7AA0EA-EAC2-4D31-AC44-CD51DE039EAA}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="C9:I14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
@@ -42468,7 +42154,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D53DF39D-84DC-471E-83CE-CAA0B199A4FB}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D53DF39D-84DC-471E-83CE-CAA0B199A4FB}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="C10:X15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField compact="0" numFmtId="16" outline="0" showAll="0">
@@ -43007,7 +42693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0649BB3B-32D1-4625-95A0-2EC56C919F98}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0649BB3B-32D1-4625-95A0-2EC56C919F98}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D8:E32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField numFmtId="16" showAll="0">
@@ -43823,9 +43509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -43863,7 +43549,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -43969,7 +43655,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -44111,7 +43797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -44125,7 +43811,7 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -50694,7 +50380,7 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
